--- a/watchlist.xlsx
+++ b/watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBGO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049415B-0C2B-4AD5-9ED5-0A2B71EAAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B63620-05E3-4B79-8BBD-8C278B0FC173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6B504300-E104-4AA4-B57E-CDC855D4DB04}"/>
   </bookViews>
@@ -41,19 +41,19 @@
     <t>RELIANCE.NS</t>
   </si>
   <si>
-    <t>INFY.NS</t>
-  </si>
-  <si>
     <t>TCS.BO</t>
   </si>
   <si>
-    <t>HDFC.NS</t>
-  </si>
-  <si>
     <t>ICICIBANK.NS</t>
   </si>
   <si>
     <t>Symbol</t>
+  </si>
+  <si>
+    <t>BSE.NS</t>
+  </si>
+  <si>
+    <t>HDFCBANK.NS</t>
   </si>
 </sst>
 </file>
@@ -431,12 +431,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -446,22 +446,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
